--- a/datafiles/dNdS/DnDs_4colonies.xlsx
+++ b/datafiles/dNdS/DnDs_4colonies.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11208"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/eloralopez/Documents/SomaticMutations/OfuAug/DnDs/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/eloralopez/Documents/GitHub/SomMuts/ScriptsandData/datafiles/dNdS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25A69D6A-492A-114D-BA35-071F71AB059F}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{571B9739-8C9A-E247-B207-AAD509C21032}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15960" yWindow="460" windowWidth="16440" windowHeight="14400" activeTab="3" xr2:uid="{6E1506E6-DF07-6A43-9835-68AF31CF6811}"/>
+    <workbookView xWindow="15960" yWindow="460" windowWidth="16440" windowHeight="14400" activeTab="1" xr2:uid="{6E1506E6-DF07-6A43-9835-68AF31CF6811}"/>
   </bookViews>
   <sheets>
     <sheet name="AH09" sheetId="1" r:id="rId1"/>
@@ -28,6 +28,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -1884,8 +1885,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA5AB81C-CA76-B04A-84F7-CB43B03E7DA5}">
   <dimension ref="A1:G29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2238,6 +2239,10 @@
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C27">
+        <f>SUM(A11:A26)/SUM(B11:B26)</f>
+        <v>2.529569892473118</v>
+      </c>
       <c r="D27">
         <v>2.529569892473118</v>
       </c>
@@ -2265,7 +2270,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D42B7C5-C365-B545-B297-DB4FCB57E2A5}">
   <dimension ref="A1:J54"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="C28" workbookViewId="0">
       <selection activeCell="I49" sqref="I49"/>
     </sheetView>
   </sheetViews>
@@ -2876,8 +2881,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{146A7F26-734F-2345-919B-C25EE327C7C3}">
   <dimension ref="A1:N13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="N7" sqref="N7"/>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/datafiles/dNdS/DnDs_4colonies.xlsx
+++ b/datafiles/dNdS/DnDs_4colonies.xlsx
@@ -8,17 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/eloralopez/Documents/GitHub/SomMuts/ScriptsandData/datafiles/dNdS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{571B9739-8C9A-E247-B207-AAD509C21032}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DF1F5A1-61F9-FA4A-A127-FC16319E3AA4}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15960" yWindow="460" windowWidth="16440" windowHeight="14400" activeTab="1" xr2:uid="{6E1506E6-DF07-6A43-9835-68AF31CF6811}"/>
+    <workbookView xWindow="15960" yWindow="460" windowWidth="16440" windowHeight="14400" activeTab="2" xr2:uid="{6E1506E6-DF07-6A43-9835-68AF31CF6811}"/>
   </bookViews>
   <sheets>
     <sheet name="AH09" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="6" r:id="rId2"/>
-    <sheet name="Sheet1" sheetId="5" r:id="rId3"/>
-    <sheet name="AH75" sheetId="2" r:id="rId4"/>
-    <sheet name="AH88" sheetId="3" r:id="rId5"/>
-    <sheet name="AH06" sheetId="4" r:id="rId6"/>
+    <sheet name="Sheet3" sheetId="7" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="5" r:id="rId4"/>
+    <sheet name="AH75" sheetId="2" r:id="rId5"/>
+    <sheet name="AH88" sheetId="3" r:id="rId6"/>
+    <sheet name="AH06" sheetId="4" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="469" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="125">
   <si>
     <t>Site</t>
   </si>
@@ -384,6 +385,33 @@
   </si>
   <si>
     <t>length*ds</t>
+  </si>
+  <si>
+    <t>LRTs</t>
+  </si>
+  <si>
+    <t>AH75</t>
+  </si>
+  <si>
+    <t>M1 likelihood</t>
+  </si>
+  <si>
+    <t>M2 likelihood</t>
+  </si>
+  <si>
+    <t>Twice the diff</t>
+  </si>
+  <si>
+    <t>M1 df</t>
+  </si>
+  <si>
+    <t>M2 df</t>
+  </si>
+  <si>
+    <t>df difference</t>
+  </si>
+  <si>
+    <t>Significant?</t>
   </si>
 </sst>
 </file>
@@ -1885,7 +1913,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA5AB81C-CA76-B04A-84F7-CB43B03E7DA5}">
   <dimension ref="A1:G29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
@@ -2267,6 +2295,87 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA959817-BDA5-134B-8F25-7E2564F68D2D}">
+  <dimension ref="A1:C11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>118</v>
+      </c>
+      <c r="B4" t="s">
+        <v>119</v>
+      </c>
+      <c r="C4" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>-2338.8488419999999</v>
+      </c>
+      <c r="B5">
+        <v>-2338.8488419999999</v>
+      </c>
+      <c r="C5">
+        <f>2*(A5-B5)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>121</v>
+      </c>
+      <c r="B7" t="s">
+        <v>122</v>
+      </c>
+      <c r="C7" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>1</v>
+      </c>
+      <c r="B8">
+        <v>3</v>
+      </c>
+      <c r="C8">
+        <f>B8-A8</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>69</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D42B7C5-C365-B545-B297-DB4FCB57E2A5}">
   <dimension ref="A1:J54"/>
   <sheetViews>
@@ -2877,7 +2986,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{146A7F26-734F-2345-919B-C25EE327C7C3}">
   <dimension ref="A1:N13"/>
   <sheetViews>
@@ -3232,7 +3341,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E12D36D8-675D-A14A-9763-22D7D8CA1F2D}">
   <dimension ref="A1:N14"/>
   <sheetViews>
@@ -3765,7 +3874,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F3067EC-2CFC-0A4D-A5A4-AEB89157AEEC}">
   <dimension ref="A1:N7"/>
   <sheetViews>

--- a/datafiles/dNdS/DnDs_4colonies.xlsx
+++ b/datafiles/dNdS/DnDs_4colonies.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/eloralopez/Documents/GitHub/SomMuts/ScriptsandData/datafiles/dNdS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DF1F5A1-61F9-FA4A-A127-FC16319E3AA4}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AF2FC4D-49ED-2A49-BACE-6916F30211A0}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15960" yWindow="460" windowWidth="16440" windowHeight="14400" activeTab="2" xr2:uid="{6E1506E6-DF07-6A43-9835-68AF31CF6811}"/>
+    <workbookView xWindow="14600" yWindow="460" windowWidth="16440" windowHeight="14400" activeTab="2" xr2:uid="{6E1506E6-DF07-6A43-9835-68AF31CF6811}"/>
   </bookViews>
   <sheets>
     <sheet name="AH09" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="585" uniqueCount="181">
   <si>
     <t>Site</t>
   </si>
@@ -412,13 +412,181 @@
   </si>
   <si>
     <t>Significant?</t>
+  </si>
+  <si>
+    <t>AH09</t>
+  </si>
+  <si>
+    <t>m1</t>
+  </si>
+  <si>
+    <t>m0</t>
+  </si>
+  <si>
+    <t>m2</t>
+  </si>
+  <si>
+    <t>m3</t>
+  </si>
+  <si>
+    <t>m7</t>
+  </si>
+  <si>
+    <t>m8</t>
+  </si>
+  <si>
+    <t>twicediff</t>
+  </si>
+  <si>
+    <t>df</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>&lt;0.01</t>
+  </si>
+  <si>
+    <t>df = np - np</t>
+  </si>
+  <si>
+    <t>&gt;0.05</t>
+  </si>
+  <si>
+    <t>ndds = 0.6000</t>
+  </si>
+  <si>
+    <t>dnds = 0.5091</t>
+  </si>
+  <si>
+    <t>Model</t>
+  </si>
+  <si>
+    <t>Parameter estimates</t>
+  </si>
+  <si>
+    <t>dN/dS</t>
+  </si>
+  <si>
+    <t>lNL</t>
+  </si>
+  <si>
+    <t>Positively selected sites</t>
+  </si>
+  <si>
+    <t>AH09:</t>
+  </si>
+  <si>
+    <t>M0</t>
+  </si>
+  <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
+  </si>
+  <si>
+    <t>M3</t>
+  </si>
+  <si>
+    <t>M7</t>
+  </si>
+  <si>
+    <t>M8</t>
+  </si>
+  <si>
+    <t>p:   0.00000  0.99876  0.00124, w:   0.00000  0.79467 302.79839</t>
+  </si>
+  <si>
+    <t>168 G ***</t>
+  </si>
+  <si>
+    <t>w=dnds</t>
+  </si>
+  <si>
+    <t>none</t>
+  </si>
+  <si>
+    <t xml:space="preserve">168 G      0.979* </t>
+  </si>
+  <si>
+    <t>p0 =   0.90000  p =   0.96308 q =   1.17998,  (p1 =   0.10000) w =   1.05000</t>
+  </si>
+  <si>
+    <t>p =   0.01040  q =   0.00689</t>
+  </si>
+  <si>
+    <t>p:   0.68361  0.17318  0.14321, w:   0.46115  1.00000  1.17797</t>
+  </si>
+  <si>
+    <t>p:   0.35625  0.64375, w:   0.00000  1.00000</t>
+  </si>
+  <si>
+    <t>AH75:</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>AH88:</t>
+  </si>
+  <si>
+    <t>p:   0.00001  0.99999, w:   0.38411  1.00000</t>
+  </si>
+  <si>
+    <t>p:   0.92616  0.00000  0.07384, w:   0.00000  1.00000 999.00000</t>
+  </si>
+  <si>
+    <t>11, 29, 44, 100, 159, 216 (all **)</t>
+  </si>
+  <si>
+    <t>p:   0.92616  0.07384  0.00000, w:   0.00000 999.00000 999.00000, note p[2] is zero</t>
+  </si>
+  <si>
+    <t>p =   1.13500  q =   0.00500</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> p0 =   0.92617  p =   0.00500 q =  99.00000,  (p1 =   0.07383) w = 999.00000</t>
+  </si>
+  <si>
+    <t>m0m3:</t>
+  </si>
+  <si>
+    <t>twicdiff</t>
+  </si>
+  <si>
+    <t>m1m2:</t>
+  </si>
+  <si>
+    <t>&lt;0.05</t>
+  </si>
+  <si>
+    <t>m7m8:</t>
+  </si>
+  <si>
+    <t>dnds</t>
+  </si>
+  <si>
+    <t>p:   0.99999  0.00001, w:   0.49296  1.00000</t>
+  </si>
+  <si>
+    <t>p:   1.00000  0.00000  0.00000, w:   0.49301  1.00000  1.00000</t>
+  </si>
+  <si>
+    <t>p:   0.31376  0.49060  0.19564, w:   0.49294  0.49295  0.49306</t>
+  </si>
+  <si>
+    <t>p =  97.03473  q =  99.00000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  p0 =   0.99999  p =  96.15305 q =  99.00000,  (p1 =   0.00001) w =   1.00000</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -429,6 +597,14 @@
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -454,9 +630,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2296,25 +2477,25 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA959817-BDA5-134B-8F25-7E2564F68D2D}">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:K53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="G51" sqref="G51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>118</v>
       </c>
@@ -2325,7 +2506,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>-2338.8488419999999</v>
       </c>
@@ -2337,7 +2518,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>121</v>
       </c>
@@ -2348,7 +2529,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>1</v>
       </c>
@@ -2360,15 +2541,660 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>69</v>
       </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>127</v>
+      </c>
+      <c r="B13" t="s">
+        <v>128</v>
+      </c>
+      <c r="C13" t="s">
+        <v>132</v>
+      </c>
+      <c r="D13" t="s">
+        <v>136</v>
+      </c>
+      <c r="E13" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>-7167.0459460000002</v>
+      </c>
+      <c r="B14">
+        <v>-7159.7347099999997</v>
+      </c>
+      <c r="C14">
+        <f>2*(B14-A14)</f>
+        <v>14.622472000000926</v>
+      </c>
+      <c r="D14">
+        <v>3</v>
+      </c>
+      <c r="E14" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>127</v>
+      </c>
+      <c r="B17" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>-7167.0459460000002</v>
+      </c>
+      <c r="B18">
+        <v>-7159.7347110000001</v>
+      </c>
+      <c r="C18">
+        <f>2*(B18-A18)</f>
+        <v>14.622470000000249</v>
+      </c>
+      <c r="D18">
+        <v>4</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>1.1886000000000001</v>
+      </c>
+      <c r="B19">
+        <v>1.17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>126</v>
+      </c>
+      <c r="B20" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>-7166.76199</v>
+      </c>
+      <c r="B21">
+        <v>-7167.0850549999996</v>
+      </c>
+      <c r="C21">
+        <f>2*(B21-A21)</f>
+        <v>-0.6461299999991752</v>
+      </c>
+      <c r="D21">
+        <v>2</v>
+      </c>
+      <c r="E21" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>0.64370000000000005</v>
+      </c>
+      <c r="B22">
+        <v>0.65710000000000002</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>130</v>
+      </c>
+      <c r="B23" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>-7166.7708249999996</v>
+      </c>
+      <c r="B24">
+        <v>-7167.3986260000001</v>
+      </c>
+      <c r="C24">
+        <f>2*(B24-A24)</f>
+        <v>-1.2556020000010903</v>
+      </c>
+      <c r="D24">
+        <v>2</v>
+      </c>
+      <c r="E24" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>138</v>
+      </c>
+      <c r="B25" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>140</v>
+      </c>
+      <c r="B27" t="s">
+        <v>133</v>
+      </c>
+      <c r="C27" t="s">
+        <v>141</v>
+      </c>
+      <c r="D27" t="s">
+        <v>142</v>
+      </c>
+      <c r="E27" t="s">
+        <v>143</v>
+      </c>
+      <c r="F27" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>146</v>
+      </c>
+      <c r="B28">
+        <v>1</v>
+      </c>
+      <c r="C28" t="s">
+        <v>154</v>
+      </c>
+      <c r="D28">
+        <v>1.1886000000000001</v>
+      </c>
+      <c r="E28">
+        <v>-7167.0459460000002</v>
+      </c>
+      <c r="F28" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>147</v>
+      </c>
+      <c r="B29">
+        <v>1</v>
+      </c>
+      <c r="C29" t="s">
+        <v>160</v>
+      </c>
+      <c r="D29">
+        <v>0.64370000000000005</v>
+      </c>
+      <c r="E29">
+        <v>-7166.76199</v>
+      </c>
+      <c r="F29" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>148</v>
+      </c>
+      <c r="B30">
+        <v>3</v>
+      </c>
+      <c r="C30" t="s">
+        <v>159</v>
+      </c>
+      <c r="D30">
+        <v>0.65710000000000002</v>
+      </c>
+      <c r="E30">
+        <v>-7167.0850549999996</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>149</v>
+      </c>
+      <c r="B31">
+        <v>5</v>
+      </c>
+      <c r="C31" t="s">
+        <v>152</v>
+      </c>
+      <c r="D31">
+        <v>1.17</v>
+      </c>
+      <c r="E31">
+        <v>-7159.7347110000001</v>
+      </c>
+      <c r="F31" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>150</v>
+      </c>
+      <c r="B32">
+        <v>2</v>
+      </c>
+      <c r="C32" t="s">
+        <v>158</v>
+      </c>
+      <c r="D32">
+        <v>0.6</v>
+      </c>
+      <c r="E32">
+        <v>-7166.7708249999996</v>
+      </c>
+      <c r="F32" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>151</v>
+      </c>
+      <c r="B33">
+        <v>4</v>
+      </c>
+      <c r="C33" t="s">
+        <v>157</v>
+      </c>
+      <c r="D33">
+        <v>0.5091</v>
+      </c>
+      <c r="E33">
+        <v>-7167.3986260000001</v>
+      </c>
+      <c r="F33" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>140</v>
+      </c>
+      <c r="B36" t="s">
+        <v>133</v>
+      </c>
+      <c r="C36" t="s">
+        <v>141</v>
+      </c>
+      <c r="D36" t="s">
+        <v>142</v>
+      </c>
+      <c r="E36" t="s">
+        <v>143</v>
+      </c>
+      <c r="F36" t="s">
+        <v>144</v>
+      </c>
+      <c r="I36" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>146</v>
+      </c>
+      <c r="B37">
+        <v>1</v>
+      </c>
+      <c r="C37">
+        <v>999</v>
+      </c>
+      <c r="D37">
+        <v>999</v>
+      </c>
+      <c r="E37">
+        <v>-1128.292735</v>
+      </c>
+      <c r="F37" t="s">
+        <v>155</v>
+      </c>
+      <c r="I37" t="s">
+        <v>171</v>
+      </c>
+      <c r="J37" t="s">
+        <v>133</v>
+      </c>
+      <c r="K37" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>147</v>
+      </c>
+      <c r="B38">
+        <v>1</v>
+      </c>
+      <c r="C38" t="s">
+        <v>164</v>
+      </c>
+      <c r="D38">
+        <v>1</v>
+      </c>
+      <c r="E38">
+        <v>-1130.2509339999999</v>
+      </c>
+      <c r="F38" t="s">
+        <v>162</v>
+      </c>
+      <c r="I38">
+        <f>2*(E37-E40)</f>
+        <v>-3.6369220000001405</v>
+      </c>
+      <c r="J38" s="2">
+        <v>4</v>
+      </c>
+      <c r="K38" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>148</v>
+      </c>
+      <c r="B39">
+        <v>3</v>
+      </c>
+      <c r="C39" t="s">
+        <v>165</v>
+      </c>
+      <c r="D39">
+        <v>73.765600000000006</v>
+      </c>
+      <c r="E39">
+        <v>-1126.4742739999999</v>
+      </c>
+      <c r="F39" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>149</v>
+      </c>
+      <c r="B40">
+        <v>5</v>
+      </c>
+      <c r="C40" t="s">
+        <v>167</v>
+      </c>
+      <c r="D40">
+        <v>73.761600000000001</v>
+      </c>
+      <c r="E40">
+        <v>-1126.4742739999999</v>
+      </c>
+      <c r="F40" t="s">
+        <v>166</v>
+      </c>
+      <c r="I40" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>150</v>
+      </c>
+      <c r="B41">
+        <v>2</v>
+      </c>
+      <c r="C41" t="s">
+        <v>168</v>
+      </c>
+      <c r="D41">
+        <v>1</v>
+      </c>
+      <c r="E41">
+        <v>-1130.2509319999999</v>
+      </c>
+      <c r="F41" t="s">
+        <v>155</v>
+      </c>
+      <c r="I41" t="s">
+        <v>171</v>
+      </c>
+      <c r="J41" t="s">
+        <v>133</v>
+      </c>
+      <c r="K41" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" ht="153" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>151</v>
+      </c>
+      <c r="B42">
+        <v>4</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="D42">
+        <v>73.758499999999998</v>
+      </c>
+      <c r="E42">
+        <v>-1126.4742739999999</v>
+      </c>
+      <c r="F42" t="s">
+        <v>166</v>
+      </c>
+      <c r="I42">
+        <f>2*(E38-E39)</f>
+        <v>-7.5533199999999852</v>
+      </c>
+      <c r="J42">
+        <v>2</v>
+      </c>
+      <c r="K42" s="3" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="I43" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>161</v>
+      </c>
+      <c r="I44" t="s">
+        <v>171</v>
+      </c>
+      <c r="J44" t="s">
+        <v>133</v>
+      </c>
+      <c r="K44" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>140</v>
+      </c>
+      <c r="B45" t="s">
+        <v>133</v>
+      </c>
+      <c r="C45" t="s">
+        <v>141</v>
+      </c>
+      <c r="D45" t="s">
+        <v>142</v>
+      </c>
+      <c r="E45" t="s">
+        <v>143</v>
+      </c>
+      <c r="F45" t="s">
+        <v>144</v>
+      </c>
+      <c r="I45">
+        <f>2*(E41-E42)</f>
+        <v>-7.5533159999999953</v>
+      </c>
+      <c r="J45">
+        <v>2</v>
+      </c>
+      <c r="K45" s="3" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>146</v>
+      </c>
+      <c r="B46">
+        <v>1</v>
+      </c>
+      <c r="C46" t="s">
+        <v>175</v>
+      </c>
+      <c r="D46">
+        <v>0.49299999999999999</v>
+      </c>
+      <c r="E46">
+        <v>-1365.466365</v>
+      </c>
+      <c r="F46" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>147</v>
+      </c>
+      <c r="B47">
+        <v>1</v>
+      </c>
+      <c r="C47" t="s">
+        <v>176</v>
+      </c>
+      <c r="D47">
+        <v>0.49299999999999999</v>
+      </c>
+      <c r="E47">
+        <v>-1365.4663660000001</v>
+      </c>
+      <c r="F47" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>148</v>
+      </c>
+      <c r="B48">
+        <v>3</v>
+      </c>
+      <c r="C48" t="s">
+        <v>177</v>
+      </c>
+      <c r="D48">
+        <v>0.49299999999999999</v>
+      </c>
+      <c r="E48">
+        <v>-1365.466365</v>
+      </c>
+      <c r="F48" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>149</v>
+      </c>
+      <c r="B49">
+        <v>5</v>
+      </c>
+      <c r="C49" t="s">
+        <v>178</v>
+      </c>
+      <c r="D49">
+        <v>0.49299999999999999</v>
+      </c>
+      <c r="E49">
+        <v>-1365.466365</v>
+      </c>
+      <c r="F49" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>150</v>
+      </c>
+      <c r="B50">
+        <v>2</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="D50">
+        <v>0.495</v>
+      </c>
+      <c r="E50">
+        <v>-1365.4664049999999</v>
+      </c>
+      <c r="F50" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>151</v>
+      </c>
+      <c r="B51">
+        <v>4</v>
+      </c>
+      <c r="C51" t="s">
+        <v>180</v>
+      </c>
+      <c r="D51">
+        <v>0.49270000000000003</v>
+      </c>
+      <c r="E51">
+        <v>-1365.4664049999999</v>
+      </c>
+      <c r="F51" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C53" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/datafiles/dNdS/DnDs_4colonies.xlsx
+++ b/datafiles/dNdS/DnDs_4colonies.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10908"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/eloralopez/Documents/GitHub/SomMuts/ScriptsandData/datafiles/dNdS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AF2FC4D-49ED-2A49-BACE-6916F30211A0}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7622503E-B887-594D-8C3B-6E78F553FD65}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14600" yWindow="460" windowWidth="16440" windowHeight="14400" activeTab="2" xr2:uid="{6E1506E6-DF07-6A43-9835-68AF31CF6811}"/>
+    <workbookView xWindow="1900" yWindow="460" windowWidth="27980" windowHeight="15820" activeTab="4" xr2:uid="{6E1506E6-DF07-6A43-9835-68AF31CF6811}"/>
   </bookViews>
   <sheets>
     <sheet name="AH09" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="585" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="578" uniqueCount="181">
   <si>
     <t>Site</t>
   </si>
@@ -66,9 +66,6 @@
     <t>G</t>
   </si>
   <si>
-    <t>contig180227-103</t>
-  </si>
-  <si>
     <t>T</t>
   </si>
   <si>
@@ -147,9 +144,6 @@
     <t>Gln</t>
   </si>
   <si>
-    <t>contig18921_203950-666</t>
-  </si>
-  <si>
     <t>contig600209-339</t>
   </si>
   <si>
@@ -204,9 +198,6 @@
     <t>contig114781-169</t>
   </si>
   <si>
-    <t>contig183216-46</t>
-  </si>
-  <si>
     <t>contig210036-140</t>
   </si>
   <si>
@@ -270,27 +261,15 @@
     <t>contig112877-66</t>
   </si>
   <si>
-    <t>contig154098_216400_151636-621</t>
-  </si>
-  <si>
-    <t>contig175848-242</t>
-  </si>
-  <si>
     <t>contig117540-349</t>
   </si>
   <si>
-    <t>contig80643-163</t>
-  </si>
-  <si>
     <t>contig188499-113</t>
   </si>
   <si>
     <t>contig69367-386</t>
   </si>
   <si>
-    <t>contig14749-282</t>
-  </si>
-  <si>
     <t>contig181086-130</t>
   </si>
   <si>
@@ -580,13 +559,34 @@
   </si>
   <si>
     <t xml:space="preserve">  p0 =   0.99999  p =  96.15305 q =  99.00000,  (p1 =   0.00001) w =   1.00000</t>
+  </si>
+  <si>
+    <t>contig189281_203950-666</t>
+  </si>
+  <si>
+    <t>contig184216-46</t>
+  </si>
+  <si>
+    <t>contig183052.225</t>
+  </si>
+  <si>
+    <t>contig176071.602</t>
+  </si>
+  <si>
+    <t>contig189780.62</t>
+  </si>
+  <si>
+    <t>contig111006.133</t>
+  </si>
+  <si>
+    <t>contig151799.89</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -605,6 +605,13 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -630,7 +637,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -638,6 +645,7 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -952,15 +960,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5AE8397-2DC7-4F49-BFC7-AE1522306538}">
-  <dimension ref="A1:N33"/>
+  <dimension ref="A1:N34"/>
   <sheetViews>
-    <sheetView topLeftCell="D3" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16:P16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="15.1640625" customWidth="1"/>
+    <col min="1" max="1" width="25.1640625" customWidth="1"/>
+    <col min="2" max="2" width="15.1640625" customWidth="1"/>
     <col min="13" max="13" width="13.1640625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -969,7 +978,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -987,25 +996,25 @@
         <v>6</v>
       </c>
       <c r="H1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="J1" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="K1" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="L1" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="M1" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="N1" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
@@ -1013,7 +1022,7 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F2" t="s">
         <v>7</v>
@@ -1022,42 +1031,45 @@
         <v>8</v>
       </c>
       <c r="H2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I2" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="J2" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="B3" t="s">
         <v>24</v>
       </c>
+      <c r="C3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3">
+        <v>2</v>
+      </c>
       <c r="F3" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="G3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H3" t="s">
-        <v>29</v>
-      </c>
-      <c r="J3">
-        <v>174</v>
-      </c>
-      <c r="K3">
-        <v>7.4000000000000003E-3</v>
-      </c>
-      <c r="L3">
-        <v>0</v>
+        <v>15</v>
+      </c>
+      <c r="I3" t="s">
+        <v>64</v>
       </c>
       <c r="M3">
-        <v>1.2876000000000001</v>
+        <v>0</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -1065,72 +1077,63 @@
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="D4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F4" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G4" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="H4" t="s">
-        <v>29</v>
-      </c>
-      <c r="J4">
-        <v>246</v>
-      </c>
-      <c r="K4">
-        <v>0</v>
-      </c>
-      <c r="L4">
-        <v>2.07E-2</v>
+        <v>15</v>
+      </c>
+      <c r="I4" t="s">
+        <v>64</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>5.0922000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
         <v>17</v>
       </c>
-      <c r="B5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C5" t="s">
-        <v>18</v>
-      </c>
       <c r="D5" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="G5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H5" t="s">
-        <v>16</v>
-      </c>
-      <c r="I5" t="s">
-        <v>67</v>
+        <v>15</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -1141,31 +1144,28 @@
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="E6">
         <v>2</v>
       </c>
       <c r="F6" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H6" t="s">
-        <v>16</v>
-      </c>
-      <c r="I6" t="s">
-        <v>67</v>
+        <v>15</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -1176,40 +1176,31 @@
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>26</v>
+        <v>174</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="D7" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G7" t="s">
         <v>8</v>
       </c>
       <c r="H7" t="s">
-        <v>29</v>
-      </c>
-      <c r="J7">
-        <v>507</v>
-      </c>
-      <c r="K7">
-        <v>2.5000000000000001E-3</v>
-      </c>
-      <c r="L7">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="M7">
-        <v>1.2675000000000001</v>
+        <v>0</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -1217,40 +1208,31 @@
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
         <v>11</v>
       </c>
       <c r="D8" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F8" t="s">
+        <v>9</v>
+      </c>
+      <c r="G8" t="s">
         <v>8</v>
       </c>
-      <c r="G8" t="s">
-        <v>7</v>
-      </c>
       <c r="H8" t="s">
-        <v>29</v>
-      </c>
-      <c r="J8">
-        <v>138</v>
-      </c>
-      <c r="K8">
-        <v>8.9999999999999993E-3</v>
-      </c>
-      <c r="L8">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="M8">
-        <v>1.242</v>
+        <v>0</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -1258,28 +1240,28 @@
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="E9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F9" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G9" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="H9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -1290,28 +1272,31 @@
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C10" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="E10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F10" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="G10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H10" t="s">
-        <v>16</v>
+        <v>15</v>
+      </c>
+      <c r="I10" t="s">
+        <v>64</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -1322,28 +1307,31 @@
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="D11" t="s">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="E11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G11" t="s">
         <v>8</v>
       </c>
       <c r="H11" t="s">
-        <v>16</v>
+        <v>15</v>
+      </c>
+      <c r="I11" t="s">
+        <v>64</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1354,28 +1342,28 @@
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="D12" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="E12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G12" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1386,28 +1374,31 @@
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>39</v>
+        <v>54</v>
       </c>
       <c r="B13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C13" t="s">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="D13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E13">
         <v>1</v>
       </c>
       <c r="F13" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="G13" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="H13" t="s">
-        <v>16</v>
+        <v>15</v>
+      </c>
+      <c r="I13" t="s">
+        <v>64</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -1418,31 +1409,28 @@
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="B14" t="s">
         <v>24</v>
       </c>
       <c r="C14" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="D14" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G14" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H14" t="s">
-        <v>16</v>
-      </c>
-      <c r="I14" t="s">
-        <v>67</v>
+        <v>15</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1453,233 +1441,198 @@
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C15" t="s">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="D15" t="s">
-        <v>42</v>
+        <v>59</v>
       </c>
       <c r="E15">
         <v>1</v>
       </c>
       <c r="F15" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G15" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H15" t="s">
-        <v>29</v>
-      </c>
-      <c r="I15" t="s">
-        <v>67</v>
-      </c>
-      <c r="J15">
-        <v>640</v>
-      </c>
-      <c r="K15">
-        <v>2E-3</v>
-      </c>
-      <c r="L15">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="M15">
-        <v>1.28</v>
+        <v>0</v>
       </c>
       <c r="N15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>43</v>
-      </c>
-      <c r="B16" t="s">
-        <v>25</v>
-      </c>
-      <c r="C16" t="s">
-        <v>19</v>
-      </c>
-      <c r="D16" t="s">
-        <v>33</v>
-      </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-      <c r="F16" t="s">
-        <v>20</v>
-      </c>
-      <c r="G16" t="s">
-        <v>8</v>
-      </c>
-      <c r="H16" t="s">
-        <v>16</v>
-      </c>
-      <c r="I16" t="s">
-        <v>67</v>
-      </c>
-      <c r="M16">
-        <v>0</v>
-      </c>
-      <c r="N16">
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="B17" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C17" t="s">
-        <v>46</v>
+        <v>12</v>
       </c>
       <c r="D17" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G17" t="s">
         <v>7</v>
       </c>
       <c r="H17" t="s">
-        <v>16</v>
+        <v>28</v>
+      </c>
+      <c r="J17">
+        <v>246</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>2.07E-2</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>5.0922000000000001</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>47</v>
+        <v>25</v>
       </c>
       <c r="B18" t="s">
         <v>24</v>
       </c>
       <c r="C18" t="s">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="D18" t="s">
-        <v>48</v>
+        <v>27</v>
       </c>
       <c r="E18">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F18" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="G18" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H18" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J18">
-        <v>114</v>
+        <v>507</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>2.5000000000000001E-3</v>
       </c>
       <c r="L18">
-        <v>3.9E-2</v>
+        <v>0</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>1.2675000000000001</v>
       </c>
       <c r="N18">
-        <v>4.4459999999999997</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>49</v>
+        <v>29</v>
       </c>
       <c r="B19" t="s">
         <v>24</v>
       </c>
       <c r="C19" t="s">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="D19" t="s">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="E19">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F19" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G19" t="s">
         <v>7</v>
       </c>
       <c r="H19" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J19">
-        <v>1392</v>
+        <v>138</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>8.9999999999999993E-3</v>
       </c>
       <c r="L19">
-        <v>3.8999999999999998E-3</v>
+        <v>0</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>1.242</v>
       </c>
       <c r="N19">
-        <v>5.4287999999999998</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="B20" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C20" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="D20" t="s">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="E20">
         <v>1</v>
       </c>
       <c r="F20" t="s">
+        <v>9</v>
+      </c>
+      <c r="G20" t="s">
         <v>7</v>
       </c>
-      <c r="G20" t="s">
-        <v>10</v>
-      </c>
       <c r="H20" t="s">
-        <v>29</v>
+        <v>28</v>
+      </c>
+      <c r="I20" t="s">
+        <v>64</v>
       </c>
       <c r="J20">
-        <v>198</v>
+        <v>640</v>
       </c>
       <c r="K20">
-        <v>6.4999999999999997E-3</v>
+        <v>2E-3</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>1.2869999999999999</v>
+        <v>1.28</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1687,92 +1640,98 @@
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="B21" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C21" t="s">
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="D21" t="s">
-        <v>22</v>
+        <v>46</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
       </c>
       <c r="F21" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G21" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="H21" t="s">
-        <v>29</v>
-      </c>
-      <c r="I21" t="s">
-        <v>67</v>
+        <v>28</v>
       </c>
       <c r="J21">
-        <v>881</v>
+        <v>114</v>
       </c>
       <c r="K21">
-        <v>1.5E-3</v>
+        <v>0</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>3.9E-2</v>
       </c>
       <c r="M21">
-        <v>1.3214999999999999</v>
+        <v>0</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>4.4459999999999997</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="B22" t="s">
-        <v>24</v>
+        <v>23</v>
+      </c>
+      <c r="C22" t="s">
+        <v>48</v>
+      </c>
+      <c r="D22" t="s">
+        <v>48</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
       </c>
       <c r="F22" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="G22" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H22" t="s">
-        <v>29</v>
-      </c>
-      <c r="I22" t="s">
-        <v>67</v>
+        <v>28</v>
       </c>
       <c r="J22">
-        <v>117</v>
+        <v>1392</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>4.7600000000000003E-2</v>
+        <v>3.8999999999999998E-3</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>5.5692000000000004</v>
+        <v>5.4287999999999998</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="B23" t="s">
         <v>24</v>
       </c>
       <c r="C23" t="s">
-        <v>11</v>
+        <v>50</v>
       </c>
       <c r="D23" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="E23">
         <v>1</v>
@@ -1781,22 +1740,22 @@
         <v>7</v>
       </c>
       <c r="G23" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H23" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J23">
-        <v>109</v>
+        <v>198</v>
       </c>
       <c r="K23">
-        <v>1.2E-2</v>
+        <v>6.4999999999999997E-3</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>1.3080000000000001</v>
+        <v>1.2869999999999999</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1804,22 +1763,40 @@
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="B24" t="s">
         <v>24</v>
       </c>
+      <c r="C24" t="s">
+        <v>18</v>
+      </c>
+      <c r="D24" t="s">
+        <v>21</v>
+      </c>
       <c r="F24" t="s">
         <v>8</v>
       </c>
       <c r="G24" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="H24" t="s">
-        <v>29</v>
+        <v>28</v>
+      </c>
+      <c r="I24" t="s">
+        <v>64</v>
+      </c>
+      <c r="J24">
+        <v>881</v>
+      </c>
+      <c r="K24">
+        <v>1.5E-3</v>
+      </c>
+      <c r="L24">
+        <v>0</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>1.3214999999999999</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1827,63 +1804,75 @@
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="B25" t="s">
-        <v>25</v>
-      </c>
-      <c r="C25" t="s">
-        <v>46</v>
-      </c>
-      <c r="D25" t="s">
-        <v>27</v>
-      </c>
-      <c r="E25">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="F25" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G25" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H25" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="I25" t="s">
-        <v>67</v>
+        <v>64</v>
+      </c>
+      <c r="J25">
+        <v>117</v>
+      </c>
+      <c r="K25">
+        <v>0</v>
+      </c>
+      <c r="L25">
+        <v>4.7600000000000003E-2</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>5.5692000000000004</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>58</v>
+        <v>175</v>
       </c>
       <c r="B26" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C26" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D26" t="s">
-        <v>59</v>
+        <v>21</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
       </c>
       <c r="F26" t="s">
         <v>7</v>
       </c>
       <c r="G26" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="H26" t="s">
-        <v>29</v>
+        <v>28</v>
+      </c>
+      <c r="J26">
+        <v>109</v>
+      </c>
+      <c r="K26">
+        <v>1.2E-2</v>
+      </c>
+      <c r="L26">
+        <v>0</v>
       </c>
       <c r="M26">
-        <v>0</v>
+        <v>1.3080000000000001</v>
       </c>
       <c r="N26">
         <v>0</v>
@@ -1891,28 +1880,19 @@
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="B27" t="s">
-        <v>25</v>
-      </c>
-      <c r="C27" t="s">
-        <v>35</v>
-      </c>
-      <c r="D27" t="s">
-        <v>13</v>
-      </c>
-      <c r="E27">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="F27" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="G27" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="H27" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="M27">
         <v>0</v>
@@ -1923,28 +1903,25 @@
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="B28" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C28" t="s">
+        <v>11</v>
+      </c>
+      <c r="D28" t="s">
+        <v>56</v>
+      </c>
+      <c r="F28" t="s">
+        <v>7</v>
+      </c>
+      <c r="G28" t="s">
         <v>19</v>
       </c>
-      <c r="D28" t="s">
-        <v>62</v>
-      </c>
-      <c r="E28">
-        <v>1</v>
-      </c>
-      <c r="F28" t="s">
-        <v>10</v>
-      </c>
-      <c r="G28" t="s">
-        <v>8</v>
-      </c>
       <c r="H28" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="M28">
         <v>0</v>
@@ -1955,28 +1932,28 @@
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B29" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C29" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D29" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E29">
         <v>1</v>
       </c>
       <c r="F29" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G29" t="s">
         <v>8</v>
       </c>
       <c r="H29" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J29">
         <v>1014</v>
@@ -1996,28 +1973,28 @@
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B30" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C30" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D30" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E30">
         <v>3</v>
       </c>
       <c r="F30" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G30" t="s">
         <v>7</v>
       </c>
       <c r="H30" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J30">
         <v>0</v>
@@ -2037,28 +2014,28 @@
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B31" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C31" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D31" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E31">
         <v>1</v>
       </c>
       <c r="F31" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G31" t="s">
         <v>8</v>
       </c>
       <c r="H31" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J31">
         <v>0</v>
@@ -2076,16 +2053,95 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="13:14" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A32" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="B32" t="s">
+        <v>23</v>
+      </c>
+      <c r="C32" t="s">
+        <v>50</v>
+      </c>
+      <c r="D32" t="s">
+        <v>50</v>
+      </c>
+      <c r="E32">
+        <v>3</v>
+      </c>
+      <c r="F32" t="s">
+        <v>9</v>
+      </c>
+      <c r="G32" t="s">
+        <v>7</v>
+      </c>
+      <c r="H32" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A33" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="B33" t="s">
+        <v>24</v>
+      </c>
+      <c r="C33" t="s">
+        <v>32</v>
+      </c>
+      <c r="D33" t="s">
+        <v>18</v>
+      </c>
+      <c r="F33" t="s">
+        <v>7</v>
+      </c>
+      <c r="G33" t="s">
+        <v>9</v>
+      </c>
+      <c r="H33" t="s">
+        <v>28</v>
+      </c>
+      <c r="I33" t="s">
+        <v>64</v>
+      </c>
       <c r="M33" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="N33">
         <f>SUM(M2:M31)/SUM(N2:N31)</f>
-        <v>0.62556850829267352</v>
+        <v>0.56286946952211214</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A34" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="B34" t="s">
+        <v>23</v>
+      </c>
+      <c r="C34" t="s">
+        <v>21</v>
+      </c>
+      <c r="D34" t="s">
+        <v>21</v>
+      </c>
+      <c r="E34">
+        <v>2</v>
+      </c>
+      <c r="F34" t="s">
+        <v>8</v>
+      </c>
+      <c r="G34" t="s">
+        <v>19</v>
+      </c>
+      <c r="H34" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:N31">
+    <sortCondition ref="H2"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2102,25 +2158,25 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="B2" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="C2">
         <f>4/2</f>
         <v>2</v>
       </c>
       <c r="E2" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="F2" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
@@ -2224,7 +2280,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="D11">
         <f>12/4</f>
@@ -2479,7 +2535,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA959817-BDA5-134B-8F25-7E2564F68D2D}">
   <dimension ref="A1:K53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
+    <sheetView topLeftCell="A33" workbookViewId="0">
       <selection activeCell="G51" sqref="G51"/>
     </sheetView>
   </sheetViews>
@@ -2487,23 +2543,23 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="B4" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="C4" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -2520,13 +2576,13 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="B7" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="C7" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
@@ -2543,34 +2599,34 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
+        <v>120</v>
+      </c>
+      <c r="B13" t="s">
+        <v>121</v>
+      </c>
+      <c r="C13" t="s">
+        <v>125</v>
+      </c>
+      <c r="D13" t="s">
+        <v>129</v>
+      </c>
+      <c r="E13" t="s">
         <v>127</v>
-      </c>
-      <c r="B13" t="s">
-        <v>128</v>
-      </c>
-      <c r="C13" t="s">
-        <v>132</v>
-      </c>
-      <c r="D13" t="s">
-        <v>136</v>
-      </c>
-      <c r="E13" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
@@ -2588,15 +2644,15 @@
         <v>3</v>
       </c>
       <c r="E14" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="B17" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
@@ -2614,7 +2670,7 @@
         <v>4</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
@@ -2627,10 +2683,10 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="B20" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
@@ -2648,7 +2704,7 @@
         <v>2</v>
       </c>
       <c r="E21" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
@@ -2661,10 +2717,10 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="B23" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
@@ -2682,51 +2738,51 @@
         <v>2</v>
       </c>
       <c r="E24" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="B25" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="B27" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="C27" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="D27" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="E27" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="F27" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="B28">
         <v>1</v>
       </c>
       <c r="C28" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="D28">
         <v>1.1886000000000001</v>
@@ -2735,18 +2791,18 @@
         <v>-7167.0459460000002</v>
       </c>
       <c r="F28" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="B29">
         <v>1</v>
       </c>
       <c r="C29" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="D29">
         <v>0.64370000000000005</v>
@@ -2755,18 +2811,18 @@
         <v>-7166.76199</v>
       </c>
       <c r="F29" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="B30">
         <v>3</v>
       </c>
       <c r="C30" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="D30">
         <v>0.65710000000000002</v>
@@ -2777,13 +2833,13 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="B31">
         <v>5</v>
       </c>
       <c r="C31" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="D31">
         <v>1.17</v>
@@ -2792,18 +2848,18 @@
         <v>-7159.7347110000001</v>
       </c>
       <c r="F31" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="B32">
         <v>2</v>
       </c>
       <c r="C32" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="D32">
         <v>0.6</v>
@@ -2812,18 +2868,18 @@
         <v>-7166.7708249999996</v>
       </c>
       <c r="F32" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="B33">
         <v>4</v>
       </c>
       <c r="C33" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="D33">
         <v>0.5091</v>
@@ -2832,40 +2888,40 @@
         <v>-7167.3986260000001</v>
       </c>
       <c r="F33" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="B36" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="C36" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="D36" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="E36" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="F36" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="I36" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="B37">
         <v>1</v>
@@ -2880,27 +2936,27 @@
         <v>-1128.292735</v>
       </c>
       <c r="F37" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="I37" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="J37" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="K37" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="B38">
         <v>1</v>
       </c>
       <c r="C38" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="D38">
         <v>1</v>
@@ -2909,7 +2965,7 @@
         <v>-1130.2509339999999</v>
       </c>
       <c r="F38" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="I38">
         <f>2*(E37-E40)</f>
@@ -2919,18 +2975,18 @@
         <v>4</v>
       </c>
       <c r="K38" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="B39">
         <v>3</v>
       </c>
       <c r="C39" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="D39">
         <v>73.765600000000006</v>
@@ -2939,18 +2995,18 @@
         <v>-1126.4742739999999</v>
       </c>
       <c r="F39" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="B40">
         <v>5</v>
       </c>
       <c r="C40" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="D40">
         <v>73.761600000000001</v>
@@ -2959,21 +3015,21 @@
         <v>-1126.4742739999999</v>
       </c>
       <c r="F40" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="I40" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="B41">
         <v>2</v>
       </c>
       <c r="C41" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="D41">
         <v>1</v>
@@ -2982,27 +3038,27 @@
         <v>-1130.2509319999999</v>
       </c>
       <c r="F41" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="I41" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="J41" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="K41" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
     </row>
     <row r="42" spans="1:11" ht="153" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="B42">
         <v>4</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="D42">
         <v>73.758499999999998</v>
@@ -3011,7 +3067,7 @@
         <v>-1126.4742739999999</v>
       </c>
       <c r="F42" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="I42">
         <f>2*(E38-E39)</f>
@@ -3021,46 +3077,46 @@
         <v>2</v>
       </c>
       <c r="K42" s="3" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.2">
       <c r="I43" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="I44" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="J44" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="K44" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="B45" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="C45" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="D45" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="E45" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="F45" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="I45">
         <f>2*(E41-E42)</f>
@@ -3070,18 +3126,18 @@
         <v>2</v>
       </c>
       <c r="K45" s="3" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="B46">
         <v>1</v>
       </c>
       <c r="C46" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="D46">
         <v>0.49299999999999999</v>
@@ -3090,18 +3146,18 @@
         <v>-1365.466365</v>
       </c>
       <c r="F46" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="B47">
         <v>1</v>
       </c>
       <c r="C47" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="D47">
         <v>0.49299999999999999</v>
@@ -3110,18 +3166,18 @@
         <v>-1365.4663660000001</v>
       </c>
       <c r="F47" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="B48">
         <v>3</v>
       </c>
       <c r="C48" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="D48">
         <v>0.49299999999999999</v>
@@ -3130,18 +3186,18 @@
         <v>-1365.466365</v>
       </c>
       <c r="F48" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="B49">
         <v>5</v>
       </c>
       <c r="C49" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="D49">
         <v>0.49299999999999999</v>
@@ -3150,18 +3206,18 @@
         <v>-1365.466365</v>
       </c>
       <c r="F49" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="B50">
         <v>2</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="D50">
         <v>0.495</v>
@@ -3170,18 +3226,18 @@
         <v>-1365.4664049999999</v>
       </c>
       <c r="F50" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="B51">
         <v>4</v>
       </c>
       <c r="C51" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="D51">
         <v>0.49270000000000003</v>
@@ -3190,7 +3246,7 @@
         <v>-1365.4664049999999</v>
       </c>
       <c r="F51" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.2">
@@ -3216,19 +3272,19 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="F1" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="G1" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="I1" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="J1" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
@@ -3264,10 +3320,10 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="B5" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="C5" t="s">
         <v>5</v>
@@ -3276,7 +3332,7 @@
         <v>6</v>
       </c>
       <c r="E5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -3293,10 +3349,10 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B6" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -3313,10 +3369,10 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B7" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="F7">
         <v>1.2675000000000001</v>
@@ -3333,10 +3389,10 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B8" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="F8">
         <v>1.242</v>
@@ -3816,18 +3872,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{146A7F26-734F-2345-919B-C25EE327C7C3}">
   <dimension ref="A1:N13"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7:O7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="46.6640625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -3845,110 +3904,119 @@
         <v>6</v>
       </c>
       <c r="H1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="J1" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="K1" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="L1" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="M1" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="N1" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="B2" t="s">
         <v>24</v>
       </c>
+      <c r="C2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
       <c r="F2" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="G2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I2" t="s">
-        <v>70</v>
+        <v>64</v>
+      </c>
+      <c r="J2">
+        <v>162</v>
+      </c>
+      <c r="K2">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
       </c>
       <c r="M2">
-        <f>J2*K2</f>
-        <v>0</v>
+        <f t="shared" ref="M2:M9" si="0">J2*K2</f>
+        <v>1.296</v>
       </c>
       <c r="N2">
-        <f>J2*L2</f>
+        <f t="shared" ref="N2:N9" si="1">J2*L2</f>
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F3" t="s">
         <v>7</v>
       </c>
       <c r="G3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H3" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="I3" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="M3">
-        <f t="shared" ref="M3:M9" si="0">J3*K3</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="N3">
-        <f t="shared" ref="N3:N9" si="1">J3*L3</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H4" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="I4" t="s">
-        <v>70</v>
-      </c>
-      <c r="J4">
-        <v>714</v>
-      </c>
-      <c r="K4">
-        <v>0</v>
-      </c>
-      <c r="L4">
-        <v>6.4999999999999997E-3</v>
+        <v>67</v>
       </c>
       <c r="M4">
         <f t="shared" si="0"/>
@@ -3956,165 +4024,73 @@
       </c>
       <c r="N4">
         <f t="shared" si="1"/>
-        <v>4.641</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>74</v>
-      </c>
-      <c r="B5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C5" t="s">
-        <v>75</v>
-      </c>
-      <c r="D5" t="s">
-        <v>33</v>
-      </c>
-      <c r="E5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>71</v>
+      </c>
+      <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>72</v>
+      </c>
+      <c r="D6" t="s">
+        <v>32</v>
+      </c>
+      <c r="E6">
         <v>2</v>
       </c>
-      <c r="F5" t="s">
-        <v>10</v>
-      </c>
-      <c r="G5" t="s">
+      <c r="F6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G6" t="s">
         <v>8</v>
       </c>
-      <c r="H5" t="s">
-        <v>73</v>
-      </c>
-      <c r="I5" t="s">
+      <c r="H6" t="s">
         <v>70</v>
       </c>
-      <c r="J5">
+      <c r="I6" t="s">
+        <v>67</v>
+      </c>
+      <c r="J6">
         <v>126</v>
       </c>
-      <c r="K5">
+      <c r="K6">
         <v>9.9000000000000008E-3</v>
       </c>
-      <c r="L5">
-        <v>0</v>
-      </c>
-      <c r="M5">
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
         <f t="shared" si="0"/>
         <v>1.2474000000000001</v>
       </c>
-      <c r="N5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>76</v>
-      </c>
-      <c r="B6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="F6" t="s">
-        <v>20</v>
-      </c>
-      <c r="G6" t="s">
-        <v>8</v>
-      </c>
-      <c r="H6" t="s">
-        <v>73</v>
-      </c>
-      <c r="I6" t="s">
-        <v>67</v>
-      </c>
-      <c r="J6">
-        <v>162</v>
-      </c>
-      <c r="K6">
-        <v>8.0000000000000002E-3</v>
-      </c>
-      <c r="L6">
-        <v>0</v>
-      </c>
-      <c r="M6">
-        <f t="shared" si="0"/>
-        <v>1.296</v>
-      </c>
       <c r="N6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>77</v>
-      </c>
-      <c r="B7" t="s">
-        <v>24</v>
-      </c>
-      <c r="F7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G7" t="s">
-        <v>7</v>
-      </c>
-      <c r="H7" t="s">
-        <v>73</v>
-      </c>
-      <c r="I7" t="s">
-        <v>70</v>
-      </c>
-      <c r="J7">
-        <v>717</v>
-      </c>
-      <c r="K7">
-        <v>0</v>
-      </c>
-      <c r="L7">
-        <v>6.1000000000000004E-3</v>
-      </c>
-      <c r="M7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="N7">
-        <f t="shared" si="1"/>
-        <v>4.3737000000000004</v>
-      </c>
-    </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
-      </c>
-      <c r="C8" t="s">
-        <v>28</v>
-      </c>
-      <c r="D8" t="s">
-        <v>75</v>
-      </c>
-      <c r="E8">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="F8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G8" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="H8" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="I8" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="M8">
         <f t="shared" si="0"/>
@@ -4127,22 +4103,31 @@
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H9" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I9" t="s">
-        <v>70</v>
+        <v>67</v>
+      </c>
+      <c r="J9">
+        <v>714</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>6.4999999999999997E-3</v>
       </c>
       <c r="M9">
         <f t="shared" si="0"/>
@@ -4150,39 +4135,45 @@
       </c>
       <c r="N9">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>4.641</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="J13" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="K13">
         <f>SUM(M2:M9)/SUM(N2:N9)</f>
-        <v>0.28213917268461508</v>
+        <v>0.54802844214608926</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:N9">
+    <sortCondition ref="A2"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E12D36D8-675D-A14A-9763-22D7D8CA1F2D}">
-  <dimension ref="A1:N14"/>
+  <dimension ref="A1:N15"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="32.1640625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -4200,25 +4191,25 @@
         <v>6</v>
       </c>
       <c r="H1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="J1" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="K1" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="L1" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="M1" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="N1" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
@@ -4226,321 +4217,275 @@
         <v>80</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E2">
-        <v>3</v>
-      </c>
-      <c r="F2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G2" t="s">
-        <v>20</v>
-      </c>
-      <c r="H2" t="s">
-        <v>73</v>
-      </c>
-      <c r="I2" t="s">
-        <v>70</v>
-      </c>
-      <c r="J2">
-        <v>178</v>
-      </c>
-      <c r="K2">
-        <v>7.1000000000000004E-3</v>
-      </c>
-      <c r="L2">
-        <v>0</v>
+        <v>81</v>
       </c>
       <c r="M2">
-        <f>J2*K2</f>
-        <v>1.2638</v>
+        <f t="shared" ref="M2:M13" si="0">J2*K2</f>
+        <v>0</v>
       </c>
       <c r="N2">
-        <f>J2*L2</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>81</v>
-      </c>
-      <c r="B3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C3" t="s">
-        <v>52</v>
-      </c>
-      <c r="D3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-      <c r="F3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G3" t="s">
-        <v>20</v>
-      </c>
-      <c r="H3" t="s">
-        <v>73</v>
-      </c>
-      <c r="I3" t="s">
-        <v>70</v>
-      </c>
-      <c r="J3">
-        <v>180</v>
-      </c>
-      <c r="K3">
-        <v>6.7999999999999996E-3</v>
-      </c>
-      <c r="L3">
-        <v>0</v>
-      </c>
-      <c r="M3">
-        <f t="shared" ref="M3:M13" si="0">J3*K3</f>
-        <v>1.224</v>
-      </c>
-      <c r="N3">
-        <f t="shared" ref="N3:N12" si="1">J3*L3</f>
+        <f t="shared" ref="N2:N13" si="1">J2*L2</f>
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="D4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="F4" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G4" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="H4" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="I4" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="J4">
-        <v>231</v>
+        <v>145</v>
       </c>
       <c r="K4">
-        <v>5.7000000000000002E-3</v>
+        <v>8.6999999999999994E-3</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <f t="shared" si="0"/>
-        <v>1.3167</v>
+        <f>J4*K4</f>
+        <v>1.2614999999999998</v>
       </c>
       <c r="N4">
-        <f t="shared" si="1"/>
+        <f>J4*L4</f>
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>18</v>
+        <v>50</v>
       </c>
       <c r="D5" t="s">
-        <v>32</v>
+        <v>17</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
       </c>
       <c r="F5" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="G5" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="H5" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="I5" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="J5">
-        <v>723</v>
+        <v>180</v>
       </c>
       <c r="K5">
-        <v>1.8E-3</v>
+        <v>6.7999999999999996E-3</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <f t="shared" si="0"/>
-        <v>1.3013999999999999</v>
+        <f>J5*K5</f>
+        <v>1.224</v>
       </c>
       <c r="N5">
-        <f t="shared" si="1"/>
+        <f>J5*L5</f>
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>27</v>
+        <v>50</v>
       </c>
       <c r="D6" t="s">
-        <v>18</v>
+        <v>17</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
       </c>
       <c r="F6" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="G6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H6" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I6" t="s">
         <v>67</v>
       </c>
+      <c r="J6">
+        <v>249</v>
+      </c>
+      <c r="K6">
+        <v>2.1600000000000001E-2</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
       <c r="M6">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>J6*K6</f>
+        <v>5.3784000000000001</v>
       </c>
       <c r="N6">
-        <f t="shared" si="1"/>
+        <f>J6*L6</f>
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="D7" t="s">
-        <v>42</v>
+        <v>50</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
       </c>
       <c r="F7" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G7" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="H7" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="I7" t="s">
-        <v>67</v>
-      </c>
-      <c r="J7">
-        <v>145</v>
-      </c>
-      <c r="K7">
-        <v>8.6999999999999994E-3</v>
-      </c>
-      <c r="L7">
-        <v>0</v>
+        <v>64</v>
       </c>
       <c r="M7">
-        <f t="shared" si="0"/>
-        <v>1.2614999999999998</v>
+        <f>J7*K7</f>
+        <v>0</v>
       </c>
       <c r="N7">
-        <f t="shared" si="1"/>
+        <f>J7*L7</f>
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>38</v>
+        <v>59</v>
       </c>
       <c r="D8" t="s">
-        <v>46</v>
+        <v>50</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
       </c>
       <c r="F8" t="s">
         <v>8</v>
       </c>
       <c r="G8" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="H8" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I8" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="M8">
-        <f t="shared" si="0"/>
+        <f>J8*K8</f>
         <v>0</v>
       </c>
       <c r="N8">
-        <f t="shared" si="1"/>
+        <f>J8*L8</f>
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B9" t="s">
-        <v>88</v>
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
+        <v>46</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9" t="s">
+        <v>9</v>
+      </c>
+      <c r="G9" t="s">
+        <v>8</v>
+      </c>
+      <c r="H9" t="s">
+        <v>70</v>
+      </c>
+      <c r="I9" t="s">
+        <v>64</v>
       </c>
       <c r="M9">
-        <f t="shared" si="0"/>
+        <f>J9*K9</f>
         <v>0</v>
       </c>
       <c r="N9">
-        <f t="shared" si="1"/>
+        <f>J9*L9</f>
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D10" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="E10">
         <v>1</v>
@@ -4549,153 +4494,133 @@
         <v>7</v>
       </c>
       <c r="G10" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="H10" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="I10" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="J10">
-        <v>249</v>
+        <v>231</v>
       </c>
       <c r="K10">
-        <v>2.1600000000000001E-2</v>
+        <v>5.7000000000000002E-3</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <f t="shared" si="0"/>
-        <v>5.3784000000000001</v>
+        <f>J10*K10</f>
+        <v>1.3167</v>
       </c>
       <c r="N10">
-        <f t="shared" si="1"/>
+        <f>J10*L10</f>
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>62</v>
+        <v>36</v>
       </c>
       <c r="D11" t="s">
-        <v>52</v>
-      </c>
-      <c r="E11">
-        <v>3</v>
+        <v>44</v>
       </c>
       <c r="F11" t="s">
         <v>8</v>
       </c>
       <c r="G11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H11" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="I11" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="M11">
-        <f t="shared" si="0"/>
+        <f>J11*K11</f>
         <v>0</v>
       </c>
       <c r="N11">
-        <f t="shared" si="1"/>
+        <f>J11*L11</f>
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>91</v>
+        <v>77</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>62</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>52</v>
-      </c>
-      <c r="E12">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="F12" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="G12" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="H12" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="I12" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="M12">
-        <f t="shared" si="0"/>
+        <f>J12*K12</f>
         <v>0</v>
       </c>
       <c r="N12">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>92</v>
-      </c>
-      <c r="B13" t="s">
-        <v>25</v>
-      </c>
-      <c r="C13" t="s">
-        <v>27</v>
-      </c>
-      <c r="D13" t="s">
-        <v>48</v>
-      </c>
-      <c r="E13">
-        <v>3</v>
-      </c>
-      <c r="F13" t="s">
-        <v>10</v>
-      </c>
-      <c r="G13" t="s">
-        <v>8</v>
-      </c>
-      <c r="H13" t="s">
-        <v>73</v>
-      </c>
-      <c r="I13" t="s">
-        <v>67</v>
-      </c>
-      <c r="M13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="N13">
-        <f>J13*L13</f>
+        <f>J12*L12</f>
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>179</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="H14" t="s">
+        <v>15</v>
+      </c>
       <c r="J14" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="K14" t="e">
         <f>SUM(K2:K10)/SUM(L2:L11)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>180</v>
+      </c>
+      <c r="B15" t="s">
+        <v>23</v>
+      </c>
+      <c r="H15" t="s">
+        <v>28</v>
+      </c>
+    </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:N12">
+    <sortCondition descending="1" ref="H4"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -4715,7 +4640,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -4733,39 +4658,39 @@
         <v>6</v>
       </c>
       <c r="H1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="J1" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="K1" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="L1" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="M1" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="N1" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -4774,47 +4699,47 @@
         <v>7</v>
       </c>
       <c r="G2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H2" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="I2" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G3" t="s">
         <v>7</v>
       </c>
       <c r="H3" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="I3" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -4826,24 +4751,24 @@
         <v>7</v>
       </c>
       <c r="H4" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="I4" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -4852,21 +4777,21 @@
         <v>7</v>
       </c>
       <c r="G5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H5" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="I5" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="J7" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="K7" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
     </row>
   </sheetData>
